--- a/biology/Zoologie/Amara_(insecte)/Amara_(insecte).xlsx
+++ b/biology/Zoologie/Amara_(insecte)/Amara_(insecte).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amara est un genre d'insectes de l'ordre des coléoptères, de la famille des carabidés.
 </t>
@@ -513,12 +525,85 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sous-genre Acorius
-Amara metallescens (Zimmermann, 1831)
-Sous-genre Allobradytus
-Amara armeniaca (Motschulsky, 1839)
-Sous-genre Amara
-Amara aenea (De Geer, 1774)
+          <t>Sous-genre Acorius</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Amara metallescens (Zimmermann, 1831)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-genre Allobradytus</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Amara armeniaca (Motschulsky, 1839)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-genre Amara</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Amara aenea (De Geer, 1774)
 Amara anthobia A. Villa &amp; G.B. Villa, 1833
 Amara bamidunyae Bates, 1878
 Amara biarticulata Motschulsky, 1845
@@ -544,29 +629,199 @@
 Amara similata (Gyllenhal, 1810)
 Amara spreta Dejean, 1831
 Amara subconvexa Putzeys, 1865
-Amara tibialis (Paykull, 1798)
-Sous-genre Amathitis
-Amara abdominalis (Motschulsky, 1844)
+Amara tibialis (Paykull, 1798)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-genre Amathitis</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Amara abdominalis (Motschulsky, 1844)
 Amara parvicollis Gebler, 1833
 Amara rufescens (Dejean, 1829)
 Amara rufescens rufescens (Dejean, 1829)
 Amara rufescens shismatica Antoine, 1957
-Amara subplanata Putzeys, 1866
-Sous-genre Ammoleirus
-Amara megacephala Gebler, 1829
-Sous-genre Ammoxena
-Amara diaphana Tschitschérine 1894
-Sous-genre Bradytus 
-Amara apricaria (Paykull, 1790)
+Amara subplanata Putzeys, 1866</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-genre Ammoleirus</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Amara megacephala Gebler, 1829</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-genre Ammoxena</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Amara diaphana Tschitschérine 1894</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-genre Bradytus </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Amara apricaria (Paykull, 1790)
 Amara aurichalcea Germar, 1824
 Amara consularis (Duftschmid, 1812)
 Amara crenata Dejean, 1828
 Amara fulva (O.F. Müller, 1776)
 Amara glacialis (Mannerheim, 1853)
 Amara majuscula (Chaudoir, 1850)
-Amara reitteri Tschitschérine, 1894
-Sous-genre Camptocelia 
-Amara affinis Dejean, 1828
+Amara reitteri Tschitschérine, 1894</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-genre Camptocelia </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Amara affinis Dejean, 1828
 Amara arcuata (Putzeys, 1865)
 Amara arcuata arcuata (Putzeys, 1865)
 Amara arcuata castiliana Hieke, 1983
@@ -581,9 +836,43 @@
 Amara gravidula gravidula Rosenhauer, 1856
 Amara gravidula testudinea (Putzeys, 1865)
 Amara malacensis Hieke, 1983
-Amara rotundata Dejean, 1828
-Sous-genre Celia 
-Amara aberrans Baudi di Selve, 1864
+Amara rotundata Dejean, 1828</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-genre Celia </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Amara aberrans Baudi di Selve, 1864
 Amara ambulans (Zimmermann, 1832)
 Amara arenaria (Putzeys, 1865)
 Amara atlantis Antoine, 1925
@@ -607,11 +896,79 @@
 Amara praetermissa (C.R. Sahlberg, 1827)
 Amara sabulosa (Audinet-Serville, 1821)
 Amara saginata (Ménétriés, 1847)
-Amara sollicita Pantel, 1888
-Sous-genre Cribramara 
-Amara skopini Hieke, 1976
-Sous-genre Curtonotus 
-Amara alpina (Paykull, 1790)
+Amara sollicita Pantel, 1888</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-genre Cribramara </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Amara skopini Hieke, 1976</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-genre Curtonotus </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Amara alpina (Paykull, 1790)
 Amara aulica (Panzer, 1797)
 Amara brevicollis (Chaudoir, 1850)
 Amara castanea (Putzeys, 1866)
@@ -622,16 +979,118 @@
 Amara gebleri Dejean, 1831
 Amara hyperborea Dejean, 1831
 Amara propinqua Ménétriés, 1832
-Amara torrida (Panzer, 1796)
-Sous-genre Harpalodema 
-Amara fausti (Reitter, 1888)
+Amara torrida (Panzer, 1796)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-genre Harpalodema </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Amara fausti (Reitter, 1888)
 Amara lutescens (Reitter, 1888)
 Amara magniceps Hieke, 1993
-Amara turcmenica Tschitschérine, 1894
-Sous-genre Leiocnemis 
-Amara krueperi Apfelbeck, 1904
-Sous-genre Leirides 
-Amara alpestris A. Villa &amp; G.B. Villa, 1833
+Amara turcmenica Tschitschérine, 1894</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-genre Leiocnemis </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Amara krueperi Apfelbeck, 1904</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-genre Leirides </t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Amara alpestris A. Villa &amp; G.B. Villa, 1833
 Amara alpestris alpestris A. Villa &amp; G.B. Villa, 1833
 Amara alpestris baldensis K. Daniel &amp; J. Daniel, 1898
 Amara alpestris dolomitana K. Daniel &amp; J. Daniel, 1898
@@ -642,9 +1101,43 @@
 Amara cardui psyllocephala K. Daniel &amp; J. Daniel, 1898
 Amara cardui sibylla Holdhaus, 1942
 Amara nobilis (Duftschmid, 1812)
-Amara spectabilis Schaum, 1858
-Sous-genre Leiromorpha 
-Amara alpicola Dejean, 1828
+Amara spectabilis Schaum, 1858</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-genre Leiromorpha </t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Amara alpicola Dejean, 1828
 Amara constantini Binaghi, 1946
 Amara cuniculina Dejean, 1831
 Amara doderoi Baliani, 1926
@@ -653,19 +1146,121 @@
 Amara lantoscana boissyi Colas, 1951
 Amara lantoscana hervei (Schuler, 1964)
 Amara lantoscana lantoscana Fauvel, 1888
-Amara uhligi Holdhaus, 1904
-Sous-genre Leironotus 
-Amara albarracina Hieke, 1984
+Amara uhligi Holdhaus, 1904</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-genre Leironotus </t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Amara albarracina Hieke, 1984
 Amara glabrata Dejean, 1828
 Amara oertzeni Hieke, 1984
 Amara ooptera (Putzeys, 1865)
-Amara rotundicollis (Schaufuss, 1862)
-Sous-genre Leuris 
-Amara espagnoli (J. Vives, 1971)
+Amara rotundicollis (Schaufuss, 1862)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-genre Leuris </t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Amara espagnoli (J. Vives, 1971)
 Amara puncticollis Dejean, 1828
-Amara pyrenaea Dejean, 1828
-Sous-genre Paracelia 
-Amara dalmatina Dejean, 1828
+Amara pyrenaea Dejean, 1828</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-genre Paracelia </t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Amara dalmatina Dejean, 1828
 Amara dichroa Putzeys, 1870
 Amara quenseli (Schönherr, 1806)
 Amara quenseli quenseli (Schönherr, 1806)
@@ -675,24 +1270,228 @@
 Amara saxicola Zimmermann, 1832
 Amara serdicana Apfelbeck, 1904
 Amara simplex Dejean, 1828
-Amara superans Wollaston, 1854
-Sous-genre Paraleirides 
-Amara bickhardti Sainte-Claire Deville, 1906
-Sous-genre Parapercosia 
-Amara taurica (Motschulsky, 1845)
-Sous-genre Percosia 
-Amara equestris (Duftschmid, 1812)
+Amara superans Wollaston, 1854</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-genre Paraleirides </t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Amara bickhardti Sainte-Claire Deville, 1906</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-genre Parapercosia </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Amara taurica (Motschulsky, 1845)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-genre Percosia </t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Amara equestris (Duftschmid, 1812)
 Amara equestris equestris (Duftschmid, 1812)
 Amara equestris pastica Dejean, 1831
 Amara equestris zabroides Dejean, 1828
 Amara infuscata (Putzeys, 1866)
-Amara sicula Dejean, 1831
-Sous-genre Xanthamara 
-Amara chlorotica Fairmaire, 1867
-Sous-genre Zabroscelis 
-Amara ditomoides (Putzeys, 1866)
-Sous-genre Zezea 
-Amara chaudoiri Schaum, 1858
+Amara sicula Dejean, 1831</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-genre Xanthamara </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Amara chlorotica Fairmaire, 1867</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-genre Zabroscelis </t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Amara ditomoides (Putzeys, 1866)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amara_(insecte)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-genre Zezea </t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Amara chaudoiri Schaum, 1858
 Amara chaudoiri chaudoiri Schaum, 1858
 Amara chaudoiri incognita Fassati, 1946
 Amara concinna Zimmermann, 1832
